--- a/TERVER/lab_03/lab_03.xlsx
+++ b/TERVER/lab_03/lab_03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\TERVER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\TERVER\lab_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62319C0C-FAE5-4106-904F-3F82D3474EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD227C6F-0F88-4C48-AA7B-BC3927B9C423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E47DF992-2F39-4385-BA06-A1BA91A415D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,70 +27,70 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
+    <t>1 задача</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n= </t>
+  </si>
+  <si>
+    <t>Б</t>
+  </si>
+  <si>
+    <t>среднее</t>
+  </si>
+  <si>
+    <t>дисперсия</t>
+  </si>
+  <si>
+    <t>несм.д.</t>
+  </si>
+  <si>
+    <t>В</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>F tabl</t>
+  </si>
+  <si>
+    <t>s^2 for t</t>
+  </si>
+  <si>
+    <t>f for t</t>
+  </si>
+  <si>
+    <t>t расч</t>
+  </si>
+  <si>
+    <t>t табл</t>
+  </si>
+  <si>
+    <t>2 задача</t>
+  </si>
+  <si>
     <t>Тип</t>
   </si>
   <si>
+    <t>y-</t>
+  </si>
+  <si>
+    <t>s^2</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>А</t>
   </si>
   <si>
-    <t>В</t>
-  </si>
-  <si>
-    <t>y-</t>
-  </si>
-  <si>
-    <t>s^2</t>
-  </si>
-  <si>
-    <t>n</t>
+    <t>3 задача</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>1 задача</t>
-  </si>
-  <si>
-    <t>Б</t>
-  </si>
-  <si>
-    <t>среднее</t>
-  </si>
-  <si>
-    <t>дисперсия</t>
-  </si>
-  <si>
-    <t>несм.д.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n= </t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>F tabl</t>
-  </si>
-  <si>
-    <t>s^2 for t</t>
-  </si>
-  <si>
-    <t>f for t</t>
-  </si>
-  <si>
-    <t>t расч</t>
-  </si>
-  <si>
-    <t>t табл</t>
-  </si>
-  <si>
-    <t>2 задача</t>
-  </si>
-  <si>
-    <t>3 задача</t>
   </si>
   <si>
     <t>сумма</t>
@@ -121,7 +121,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -134,7 +133,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,18 +157,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -171,6 +164,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,15 +213,15 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -260,7 +259,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59D16DEB-2FA5-044F-67C4-46832E8AE3C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC803D2-01CB-4F23-AFCF-577B301B5954}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -276,8 +275,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3962400" y="4682836"/>
-          <a:ext cx="7300593" cy="4488569"/>
+          <a:off x="3962400" y="4754880"/>
+          <a:ext cx="7300593" cy="4555070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -290,9 +289,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -306,7 +305,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -318,7 +317,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -330,12 +329,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -365,29 +364,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -417,26 +399,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -585,11 +550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BEEC3C-B0FC-4996-83AB-BE6D4B565A44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,19 +565,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>14</v>
@@ -633,21 +598,21 @@
         <v>16</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J4" s="4">
         <f>SUM(B4:G4)/C3</f>
         <v>14.833333333333334</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L4" s="4">
         <f>(B4^2+C4^2+D4^2+E4^2+F4^2+G4^2)/C3-J4^2</f>
         <v>0.80555555555554292</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N4" s="4">
         <f>C3/5*L4</f>
@@ -656,7 +621,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>11</v>
@@ -677,21 +642,21 @@
         <v>11</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J5" s="4">
         <f>SUM(B5:G5)/C3</f>
         <v>12.333333333333334</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L5" s="4">
         <f>(B5^2+C5^2+D5^2+E5^2+F5^2+G5^2)/C3-J5^2</f>
         <v>1.8888888888888857</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N5" s="4">
         <f>C3/5*L5</f>
@@ -700,7 +665,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M6" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N6" s="4">
         <f>N5/N4</f>
@@ -709,7 +674,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M7" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N7" s="4">
         <f>_xlfn.F.INV.RT(0.05/2,5,5)</f>
@@ -718,7 +683,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M8" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N8" s="4">
         <f>(5*N4+5*N5)/(C3+C3-2)</f>
@@ -727,7 +692,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M9" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N9" s="4">
         <f>C3+C3-2</f>
@@ -736,7 +701,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M10" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N10" s="4">
         <f>(J4-J5)/SQRT(N8*(1/C3+1/C3))</f>
@@ -745,7 +710,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M11" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N11" s="4">
         <f>_xlfn.T.INV.2T(0.05,C3+C3-2)</f>
@@ -753,27 +718,27 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>20</v>
+      <c r="A13" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3">
         <v>75.5</v>
@@ -785,7 +750,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I15" s="4">
         <f>C16/C15</f>
@@ -794,7 +759,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" s="3">
         <v>89.3</v>
@@ -806,16 +771,16 @@
         <v>20</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I16" s="4">
-        <f>_xlfn.F.INV.RT(0.05/2,14,19)</f>
-        <v>2.6469279488440205</v>
+        <f>_xlfn.F.INV.RT(0.05/2,19,14)</f>
+        <v>2.8607215359970652</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H17" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I17" s="4">
         <f>(14*C15+19*C16)/(D15+D16-2)</f>
@@ -824,7 +789,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H18" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I18" s="4">
         <f>D15+D16-2</f>
@@ -833,7 +798,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H19" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I19" s="4">
         <f>(B16-B15)/SQRT(I17*(1/D15+1/D16))</f>
@@ -842,7 +807,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H20" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I20" s="4">
         <f>_xlfn.T.INV.2T(0.05,I18)</f>
@@ -850,190 +815,189 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1.38</v>
+      </c>
+      <c r="C23" s="5">
+        <v>9.69</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1.42</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G23" s="5">
+        <v>5.94</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="J23" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1.38</v>
-      </c>
-      <c r="C23" s="7">
-        <v>9.69</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="B24" s="5">
+        <v>1.42</v>
+      </c>
+      <c r="C24" s="5">
+        <v>10.37</v>
+      </c>
+      <c r="D24" s="5">
         <v>0.39</v>
       </c>
-      <c r="E23" s="7">
-        <v>1.42</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0.95</v>
-      </c>
-      <c r="G23" s="7">
-        <v>5.94</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0.59</v>
-      </c>
-      <c r="J23" s="9">
+      <c r="E24" s="5">
+        <v>1.46</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="G24" s="5">
+        <v>6.15</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="J24" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="7">
-        <v>1.42</v>
-      </c>
-      <c r="C24" s="7">
-        <v>10.37</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1.46</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0.93</v>
-      </c>
-      <c r="G24" s="7">
-        <v>6.15</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0.61</v>
-      </c>
-      <c r="J24" s="9">
-        <v>7</v>
-      </c>
-    </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="8">
-        <f>B23-B24</f>
+      <c r="B25" s="7">
+        <f t="shared" ref="B25:H25" si="0">B23-B24</f>
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="C25" s="8">
-        <f>C23-C24</f>
+      <c r="C25" s="7">
+        <f t="shared" si="0"/>
         <v>-0.67999999999999972</v>
       </c>
-      <c r="D25" s="8">
-        <f>D23-D24</f>
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="8">
-        <f>E23-E24</f>
+      <c r="E25" s="7">
+        <f t="shared" si="0"/>
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="F25" s="8">
-        <f>F23-F24</f>
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
         <v>1.9999999999999907E-2</v>
       </c>
-      <c r="G25" s="8">
-        <f>G23-G24</f>
+      <c r="G25" s="7">
+        <f t="shared" si="0"/>
         <v>-0.20999999999999996</v>
       </c>
-      <c r="H25" s="8">
-        <f>H23-H24</f>
+      <c r="H25" s="7">
+        <f t="shared" si="0"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <f>SUM(B25:H25)</f>
         <v>-0.96999999999999986</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="8">
         <f>J25/7</f>
         <v>-0.13857142857142854</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" s="8">
         <f>(B25^2+C25^2+E25^2+F25^2+G25^2+H25^2)/7-L25^2</f>
         <v>5.3726530612244833E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="10">
         <f>SUM(B23:H23)/J23</f>
         <v>2.9085714285714284</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="10">
         <f>(1/J23)*SUM(POWER(B23:H23,2)-POWER(C27,2))</f>
         <v>-0.92048396501457708</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="10">
         <f>SUM(B24:H24)/J24</f>
         <v>3.0471428571428567</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="10">
         <f>(1/J24)*SUM(POWER(B24:H24,2)-POWER(C28,2))</f>
         <v>-1.0219256559766761</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="8">
         <f>(1/J24)*((B25-L25)^2+(C25-L25)^2+(D25-L25)^2+(E25-L25)^2+(F25-L25)^2+(G25-L25)^2+(H25-L25)^2)</f>
         <v>5.3726530612244833E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="8">
         <f>J23/(J23-1)*E29</f>
         <v>6.2680952380952309E-2</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="8">
         <f>ABS(L25)/SQRT(E30/7)</f>
         <v>1.4643838175333543</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="8">
         <f>_xlfn.T.INV.2T(0.05,6)</f>
         <v>2.4469118511449697</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>